--- a/chile_medidas.xlsx
+++ b/chile_medidas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">nivel</t>
   </si>
   <si>
+    <t xml:space="preserve">examenes</t>
+  </si>
+  <si>
     <t xml:space="preserve">fase 1-2</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">toque queda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cierre santiago</t>
   </si>
 </sst>
 </file>
@@ -149,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -173,6 +179,9 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -185,7 +194,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,7 +208,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,7 +222,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,7 +236,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,7 +250,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,7 +264,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,7 +278,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +292,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,7 +306,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,7 +320,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,7 +334,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,7 +348,7 @@
         <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,7 +362,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,7 +376,7 @@
         <v>156</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +390,7 @@
         <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,7 +404,7 @@
         <v>342</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,7 +418,7 @@
         <v>434</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,7 +432,7 @@
         <v>537</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,21 +446,101 @@
         <v>632</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>43912</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>746</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>43915</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>26639</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>43918</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
